--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Rspo3-Lgr4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Rspo3-Lgr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H2">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.10804502763396</v>
+        <v>1.263917333333333</v>
       </c>
       <c r="N2">
-        <v>1.10804502763396</v>
+        <v>3.791752</v>
       </c>
       <c r="O2">
-        <v>0.05967177973506851</v>
+        <v>0.06307655211196754</v>
       </c>
       <c r="P2">
-        <v>0.05967177973506851</v>
+        <v>0.06307655211196754</v>
       </c>
       <c r="Q2">
-        <v>3.121840212291021</v>
+        <v>3.566900263788445</v>
       </c>
       <c r="R2">
-        <v>3.121840212291021</v>
+        <v>32.102102374096</v>
       </c>
       <c r="S2">
-        <v>0.05967177973506851</v>
+        <v>0.06307655211196754</v>
       </c>
       <c r="T2">
-        <v>0.05967177973506851</v>
+        <v>0.06307655211196754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +599,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H3">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.6527393233568</v>
+        <v>10.871597</v>
       </c>
       <c r="N3">
-        <v>10.6527393233568</v>
+        <v>32.614791</v>
       </c>
       <c r="O3">
-        <v>0.5736841902858492</v>
+        <v>0.542553564719536</v>
       </c>
       <c r="P3">
-        <v>0.5736841902858492</v>
+        <v>0.5425535647195359</v>
       </c>
       <c r="Q3">
-        <v>30.01335610135078</v>
+        <v>30.68072664596867</v>
       </c>
       <c r="R3">
-        <v>30.01335610135078</v>
+        <v>276.126539813718</v>
       </c>
       <c r="S3">
-        <v>0.5736841902858492</v>
+        <v>0.542553564719536</v>
       </c>
       <c r="T3">
-        <v>0.5736841902858492</v>
+        <v>0.5425535647195359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H4">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.129191156028746</v>
+        <v>0.1440293333333333</v>
       </c>
       <c r="N4">
-        <v>0.129191156028746</v>
+        <v>0.432088</v>
       </c>
       <c r="O4">
-        <v>0.006957358242676824</v>
+        <v>0.007187870211173049</v>
       </c>
       <c r="P4">
-        <v>0.006957358242676824</v>
+        <v>0.007187870211173049</v>
       </c>
       <c r="Q4">
-        <v>0.3639871448402336</v>
+        <v>0.4064650855804445</v>
       </c>
       <c r="R4">
-        <v>0.3639871448402336</v>
+        <v>3.658185770224</v>
       </c>
       <c r="S4">
-        <v>0.006957358242676824</v>
+        <v>0.007187870211173049</v>
       </c>
       <c r="T4">
-        <v>0.006957358242676824</v>
+        <v>0.007187870211173049</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H5">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,31 +744,31 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.587091738128189</v>
+        <v>0.114435</v>
       </c>
       <c r="N5">
-        <v>0.587091738128189</v>
+        <v>0.343305</v>
       </c>
       <c r="O5">
-        <v>0.03161677369436004</v>
+        <v>0.005710947267331571</v>
       </c>
       <c r="P5">
-        <v>0.03161677369436004</v>
+        <v>0.00571094726733157</v>
       </c>
       <c r="Q5">
-        <v>1.654090357957794</v>
+        <v>0.3229469372100001</v>
       </c>
       <c r="R5">
-        <v>1.654090357957794</v>
+        <v>2.90652243489</v>
       </c>
       <c r="S5">
-        <v>0.03161677369436004</v>
+        <v>0.005710947267331571</v>
       </c>
       <c r="T5">
-        <v>0.03161677369436004</v>
+        <v>0.00571094726733157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H6">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +803,96 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.09192856080064</v>
+        <v>0.6215056666666667</v>
       </c>
       <c r="N6">
-        <v>6.09192856080064</v>
+        <v>1.864517</v>
       </c>
       <c r="O6">
-        <v>0.3280698980420455</v>
+        <v>0.03101661282545625</v>
       </c>
       <c r="P6">
-        <v>0.3280698980420455</v>
+        <v>0.03101661282545625</v>
       </c>
       <c r="Q6">
-        <v>17.16358728861528</v>
+        <v>1.753950727562889</v>
       </c>
       <c r="R6">
-        <v>17.16358728861528</v>
+        <v>15.785556548066</v>
       </c>
       <c r="S6">
-        <v>0.3280698980420455</v>
+        <v>0.03101661282545625</v>
       </c>
       <c r="T6">
-        <v>0.3280698980420455</v>
+        <v>0.03101661282545625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H7">
+        <v>8.466298</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.022347333333333</v>
+      </c>
+      <c r="N7">
+        <v>21.067042</v>
+      </c>
+      <c r="O7">
+        <v>0.3504544528645357</v>
+      </c>
+      <c r="P7">
+        <v>0.3504544528645357</v>
+      </c>
+      <c r="Q7">
+        <v>19.81776172783511</v>
+      </c>
+      <c r="R7">
+        <v>178.359855550516</v>
+      </c>
+      <c r="S7">
+        <v>0.3504544528645357</v>
+      </c>
+      <c r="T7">
+        <v>0.3504544528645357</v>
       </c>
     </row>
   </sheetData>
